--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10538,7 +10538,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-09-14T18:59:02.603575+00:00</t>
+    <t>2025-09-15T15:16:27.820560+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-13T14:26:19.272794+00:00</t>
+    <t>2026-02-21T12:52:45.474424+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T12:52:45.474424+00:00</t>
+    <t>2026-02-21T12:54:44.093597+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T12:54:44.093597+00:00</t>
+    <t>2026-02-21T13:22:55.660581+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T13:22:55.660581+00:00</t>
+    <t>2026-02-21T13:33:56.478417+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T13:33:56.478417+00:00</t>
+    <t>2026-02-21T13:50:22.426063+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T13:50:22.426063+00:00</t>
+    <t>2026-02-21T13:52:34.600242+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T13:52:34.600242+00:00</t>
+    <t>2026-02-21T13:56:18.905539+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T13:56:18.905539+00:00</t>
+    <t>2026-02-21T15:11:51.272813+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T15:11:51.272813+00:00</t>
+    <t>2026-02-21T15:18:10.074750+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T15:18:10.074750+00:00</t>
+    <t>2026-02-21T15:31:36.988600+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13133,7 +13133,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-21T15:31:36.988600+00:00</t>
+    <t>2026-02-22T14:53:50.781974+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -5112,7 +5112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12573" uniqueCount="2555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12565" uniqueCount="2567">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -5204,7 +5204,7 @@
     <t>T1004</t>
   </si>
   <si>
-    <t>Selective data acquisition</t>
+    <t>Selective file acquisition</t>
   </si>
   <si>
     <t>T1005</t>
@@ -5222,7 +5222,7 @@
     <t>T1007</t>
   </si>
   <si>
-    <t>SyncTriage-based approach</t>
+    <t>Use a SyncTriage-based approach to detect existence of devices</t>
   </si>
   <si>
     <t>T1008</t>
@@ -5252,13 +5252,13 @@
     <t>T1012</t>
   </si>
   <si>
-    <t>Hardware write blockers</t>
+    <t>Connect storage medium via hardware write blocker</t>
   </si>
   <si>
     <t>T1013</t>
   </si>
   <si>
-    <t>Software write blockers</t>
+    <t>Use software write blockers to provide read only access to storage media</t>
   </si>
   <si>
     <t>T1014</t>
@@ -5354,7 +5354,7 @@
     <t>T1029</t>
   </si>
   <si>
-    <t>Data read from desoldered eMMC</t>
+    <t>Access data from a desoldered eMMC via a chip reader</t>
   </si>
   <si>
     <t>T1030</t>
@@ -6176,7 +6176,7 @@
     <t>Recording a system clock compared with trusted time source</t>
   </si>
   <si>
-    <t xml:space="preserve">Copying of sectors from a storage media, typically LBA~0~ to LBA~max~ into an imaging format. The could be from a traditional hard disk, SSD, USB stick, or data from an eMMC chip that has been desoldered and placed in a reader. </t>
+    <t xml:space="preserve">Copying of sectors from a storage media, typically LBA~0~ to LBA~max~ to a bitstream that can be stored in a image format (T1025). </t>
   </si>
   <si>
     <t>Involves creating a copy of the live memory data of a running system</t>
@@ -6194,13 +6194,13 @@
     <t>An examiner directly manipulates the target mobile device using the device's input interface (i.e., keypads and buttons), and records the content shown on the display of the device. (Fukami et al 2021)</t>
   </si>
   <si>
-    <t>Previewing a data source and selecting a subset of the data for collection into a container such as a tar/zip file or a forensic image format.</t>
+    <t>Previewing a data source and selecting a subset of the files for extraction into a container such as a tar/zip file or a forensic image format.</t>
   </si>
   <si>
     <t>Previewing a data source and selecting a subset of the data for collection into a container such as a tar/zip file or a forensic image format for the purposes of protecting the privacy of the complainant or witness.</t>
   </si>
   <si>
-    <t xml:space="preserve">Storage of data recovered from a digital device. Popular formats are RAW, EWF, AFF4 and some proprietary logical formats from other tool vendors. </t>
+    <t>Storage of data recovered from a digital device in various formats which might include bitstream data or a logical set of files</t>
   </si>
   <si>
     <t>Storing acquired data in a standard archive format such as rar, tar or zip</t>
@@ -10360,7 +10360,7 @@
 T1006</t>
   </si>
   <si>
-    <t>SyncTriage-based approach
+    <t>Use a SyncTriage-based approach to detect existence of devices
 T1007</t>
   </si>
   <si>
@@ -10384,11 +10384,11 @@
 T1011</t>
   </si>
   <si>
-    <t>Hardware write blockers
+    <t>Connect storage medium via hardware write blocker
 T1012</t>
   </si>
   <si>
-    <t>Software write blockers
+    <t>Use software write blockers to provide read only access to storage media
 T1013</t>
   </si>
   <si>
@@ -10404,7 +10404,7 @@
 T1003</t>
   </si>
   <si>
-    <t>Selective data acquisition
+    <t>Selective file acquisition
 T1004</t>
   </si>
   <si>
@@ -10452,7 +10452,7 @@
 T1028</t>
   </si>
   <si>
-    <t>Data read from desoldered eMMC
+    <t>Access data from a desoldered eMMC via a chip reader
 T1029</t>
   </si>
   <si>
@@ -11054,7 +11054,10 @@
     <t>Involves the ranking of apprehended digital items in terms of their importance to a case and likelihood that the contain the data require (Wilson-Kovacs 2020). It can involve multiple techniques to identify devices of most interest such as keyword searching, hash matching, media review etc.</t>
   </si>
   <si>
-    <t>['https://cacontology.projectvic.org/forensics#priorityClassification']</t>
+    <t>['https://ontology.solveit-df.org/solveit/observable/DeviceSet']</t>
+  </si>
+  <si>
+    <t>['https://ontology.solveit-df.org/solveit/observable/PrioritizedDeviceSet']</t>
   </si>
   <si>
     <t>M1007, M1008</t>
@@ -11075,7 +11078,14 @@
     <t>['Acquire data']</t>
   </si>
   <si>
-    <t>['https://ontology.unifiedcyberontology.org/uco/observable/Image']</t>
+    <t>The process could be applied to a traditional hard disk, SSD, USB stick, or data from an eMMC chip that has been desoldered and placed in a reader. This data needs to be stored as a container file (T1025). Logs would also usually be created recording the details of the imaging process and any errors that occured.</t>
+  </si>
+  <si>
+    <t>['https://ontology.solveit-df.org/solveit/observable/WriteProtectedDeviceInterface',
+ 'https://ontology.solveit-df.org/solveit/observable/DeviceInterface']</t>
+  </si>
+  <si>
+    <t>['https://ontology.solveit-df.org/solveit/observable/BitstreamData']</t>
   </si>
   <si>
     <t>['dcfldd', 'FTK Imager', 'Magnet ACQUIRE']</t>
@@ -11111,7 +11121,17 @@
     <t>['RAM dump', 'RAM imaging', 'memory dump']</t>
   </si>
   <si>
-    <t>['FTK Imager - Can capture both RAM and the pagefile of the system']</t>
+    <t>Collection of Pagefile may also be useful (Kornblum 2007).</t>
+  </si>
+  <si>
+    <t>['https://ontology.unifiedcyberontology.org/uco/observable/Memory']</t>
+  </si>
+  <si>
+    <t>['https://ontology.solveit-df.org/solveit/observable/RawImageFile',
+ 'https://ontology.solveit-df.org/solveit/observable/RawImageInfoFile']</t>
+  </si>
+  <si>
+    <t>['FTK Imager']</t>
   </si>
   <si>
     <t>M1086, M1088</t>
@@ -11129,6 +11149,9 @@
     <t>['T1003', 'M1087']</t>
   </si>
   <si>
+    <t>Kornblum, J.D., 2007. Using every part of the buffalo in Windows memory analysis. Digital Investigation, 4(1), pp.24-29.</t>
+  </si>
+  <si>
     <t>Pagani, F., Fedorov, O. and Balzarotti, D., 2019. Introducing the temporal dimension to memory forensics. ACM Transactions on Privacy and Security (TOPS), 22(2), 1-21.</t>
   </si>
   <si>
@@ -11163,13 +11186,17 @@
   </si>
   <si>
     <t>['Logical imaging']</t>
+  </si>
+  <si>
+    <t>['https://ontology.unifiedcyberontology.org/uco/observable/FileSystem']</t>
+  </si>
+  <si>
+    <t>['https://ontology.solveit-df.org/solveit/observable/FilteredFileSet',
+ 'https://ontology.solveit-df.org/solveit/observable/ForensicImageContainer']</t>
   </si>
   <si>
     <t>['FTK Imager - allows an AD1 logical container to be created of a selected '
  'subset of files within a previewed data source.']</t>
-  </si>
-  <si>
-    <t>todo</t>
   </si>
   <si>
     <t>['Find potential digital evidence sources']</t>
@@ -11185,11 +11212,8 @@
     <t>The UK's Forensic Science Regulator (FSR) guidance refers to "Incident scene examination" which takes a holistic approach and considers an incident scene in conjunction with the requirements of an investigation and the criminal justice system. The aim of incident scene examination is to identify and locate, or note the absence of, physical material which has relevance and significance to inform the investigation including, where relevant, the reconstruction of past events.</t>
   </si>
   <si>
-    <t>['https://ontology.unifiedcyberontology.org/uco/observable/Device',
- 'https://ontology.unifiedcyberontology.org/uco/observable/Computer',
- 'https://ontology.unifiedcyberontology.org/uco/observable/MobileDevice',
- 'https://ontology.unifiedcyberontology.org/uco/observable/SmartDevice',
- 'https://ontology.unifiedcyberontology.org/uco/observable/WearableDevice',
+    <t>['https://ontology.solveit-df.org/solveit/observable/DeviceSet',
+ 'https://ontology.unifiedcyberontology.org/uco/observable/Device',
  'https://ontology.unifiedcyberontology.org/uco/observable/location']</t>
   </si>
   <si>
@@ -11233,11 +11257,7 @@
  'https://ontology.unifiedcyberontology.org/uco/observable/Device']</t>
   </si>
   <si>
-    <t>['https://ontology.unifiedcyberontology.org/uco/observable/Device',
- 'https://ontology.unifiedcyberontology.org/uco/observable/Computer',
- 'https://ontology.unifiedcyberontology.org/uco/observable/MobileDevice',
- 'https://ontology.unifiedcyberontology.org/uco/observable/SmartDevice',
- 'https://ontology.unifiedcyberontology.org/uco/observable/WearableDevice']</t>
+    <t>['https://ontology.unifiedcyberontology.org/uco/observable/Device']</t>
   </si>
   <si>
     <t>['SyncTriage - https://bitbucket.org/chrishargreaves/synctriage']</t>
@@ -11249,12 +11269,6 @@
     <t>M1058, M1027</t>
   </si>
   <si>
-    <t>['T1008']</t>
-  </si>
-  <si>
-    <t>['T1009']</t>
-  </si>
-  <si>
     <t>['Preserve digital evidence']</t>
   </si>
   <si>
@@ -11270,6 +11284,12 @@
     <t xml:space="preserve">Note that "Sometimes it may be desirable to change a drive configuration to obtain access to otherwise hidden sectors, for example, such as within an HPA (host protected area)." (Lyle 2006) </t>
   </si>
   <si>
+    <t>['https://ontology.unifiedcyberontology.org/uco/observable/StorageMedium']</t>
+  </si>
+  <si>
+    <t>['https://ontology.solveit-df.org/solveit/observable/WriteProtectedDeviceInterface']</t>
+  </si>
+  <si>
     <t>M1071, M1072, M1073</t>
   </si>
   <si>
@@ -11279,6 +11299,9 @@
     <t>['T1012', 'M1071']</t>
   </si>
   <si>
+    <t>['https://ontology.solveit-df.org/solveit/observable/DeviceInterface']</t>
+  </si>
+  <si>
     <t>NIST (2006) NIST SP 800-86 Guide to Integrating Forensic Techniques into Incident Response, https://doi.org/10.6028/NIST.SP.800-86</t>
   </si>
   <si>
@@ -11286,6 +11309,9 @@
   </si>
   <si>
     <t>['Produce documentation']</t>
+  </si>
+  <si>
+    <t>todo</t>
   </si>
   <si>
     <t>['T1014']</t>
@@ -11425,11 +11451,15 @@
     <t>['Disk image container', 'image file']</t>
   </si>
   <si>
-    <t>Formats:
-Raw: 
-EWF:
-AFF: 
-The imaged data may be split into several linked container formats. e.g. e01, e02 e03 etc.</t>
+    <t>Bitstream data that would result from disk imaging would be stored in formats such as: RAW, EWF, AFF4. For sets of files that are extracted there are proprietary logical formats from tool vendors. The imaged data may be split into several linked container formats. e.g. e01, e02 e03 etc.</t>
+  </si>
+  <si>
+    <t>['https://ontology.solveit-df.org/solveit/observable/BitstreamData',
+ 'https://ontology.solveit-df.org/solveit/observable/FileSet']</t>
+  </si>
+  <si>
+    <t>['https://ontology.solveit-df.org/solveit/observable/ForensicImageContainer',
+ 'https://ontology.solveit-df.org/solveit/observable/RawImageFile']</t>
   </si>
   <si>
     <t>['2009 M57-Jean - Data is supplied as a ‘multi-volume Expert Witness file’ - '
@@ -11454,9 +11484,6 @@
   </si>
   <si>
     <t>['T1028']</t>
-  </si>
-  <si>
-    <t>['T1029']</t>
   </si>
   <si>
     <t>['T1030']</t>
@@ -12423,8 +12450,7 @@
  'https://ontology.solveit-df.org/solveit/observable/ClockOffset']</t>
   </si>
   <si>
-    <t>['https://ontology.unifiedcyberontology.org/uco/observable/Disk',
- 'https://ontology.unifiedcyberontology.org/uco/observable/StorageMedium']</t>
+    <t>['https://ontology.unifiedcyberontology.org/uco/observable/Computer']</t>
   </si>
   <si>
     <t>Use forensic bootable environment to gain access to internal media (T1113)</t>
@@ -12434,9 +12460,6 @@
   </si>
   <si>
     <t>['W1176']</t>
-  </si>
-  <si>
-    <t>['https://ontology.unifiedcyberontology.org/uco/observable/BlockDeviceNode']</t>
   </si>
   <si>
     <t>['WinFE - Windows Forensic Environment, is forensically sound, bootable '
@@ -12475,6 +12498,9 @@
     <t>An examiner freezes a computer’s RAM by spraying it with liquid nitrogen or even using inverted canned air, then powering off the live system without proper shutdown, and then booting into an external plugged USB, and try capturing the residual RAM content with encryption keys that might still be stored there</t>
   </si>
   <si>
+    <t>['https://ontology.unifiedcyberontology.org/uco/observable/Image']</t>
+  </si>
+  <si>
     <t>['T1114']</t>
   </si>
   <si>
@@ -12495,6 +12521,13 @@
   </si>
   <si>
     <t>Basis Technology 2020, Autopsy User Documentation: Geolocation Overview, https://sleuthkit.org/autopsy/docs/user-docs/4.13.0/geolocation_page.html</t>
+  </si>
+  <si>
+    <t>['https://ontology.unifiedcyberontology.org/uco/observable/Device',
+ 'https://ontology.unifiedcyberontology.org/uco/observable/Computer',
+ 'https://ontology.unifiedcyberontology.org/uco/observable/MobileDevice',
+ 'https://ontology.unifiedcyberontology.org/uco/observable/SmartDevice',
+ 'https://ontology.unifiedcyberontology.org/uco/observable/WearableDevice']</t>
   </si>
   <si>
     <t>['USB connected devices', 'ADB connected hosts', 'iOS Backups from a computer']</t>
@@ -13136,7 +13169,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T02:06:37.780599+00:00</t>
+    <t>2026-02-23T02:07:15.516282+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -14257,9 +14290,9 @@
     <hyperlink ref="Q4" location="T1088!A1" display="Relational-based event reconstruction&#10;T1088"/>
     <hyperlink ref="R4" location="T1090!A1" display="Experimentation&#10;T1090"/>
     <hyperlink ref="S4" location="T1091!A1" display="Bookmark artifacts&#10;T1091"/>
-    <hyperlink ref="A5" location="T1007!A1" display="SyncTriage-based approach&#10;T1007"/>
-    <hyperlink ref="C5" location="T1012!A1" display="Hardware write blockers&#10;T1012"/>
-    <hyperlink ref="D5" location="T1004!A1" display="Selective data acquisition&#10;T1004"/>
+    <hyperlink ref="A5" location="T1007!A1" display="Use a SyncTriage-based approach to detect existence of devices&#10;T1007"/>
+    <hyperlink ref="C5" location="T1012!A1" display="Connect storage medium via hardware write blocker&#10;T1012"/>
+    <hyperlink ref="D5" location="T1004!A1" display="Selective file acquisition&#10;T1004"/>
     <hyperlink ref="E5" location="T1033!A1" display="Extraction of credential from an accessible device&#10;T1033"/>
     <hyperlink ref="F5" location="T1044!A1" display="Mobile backup decoding&#10;T1044"/>
     <hyperlink ref="G5" location="T1048!A1" display="Privacy protection via partial processing&#10;T1048"/>
@@ -14274,7 +14307,7 @@
     <hyperlink ref="R5" location="T1095!A1" display="Instrumentation&#10;T1095"/>
     <hyperlink ref="S5" location="T1092!A1" display="Produce tag-based automated report&#10;T1092"/>
     <hyperlink ref="A6" location="T1008!A1" display="Profiling network traffic&#10;T1008"/>
-    <hyperlink ref="C6" location="T1013!A1" display="Software write blockers&#10;T1013"/>
+    <hyperlink ref="C6" location="T1013!A1" display="Use software write blockers to provide read only access to storage media&#10;T1013"/>
     <hyperlink ref="D6" location="T1015!A1" display="Privacy preserving selective extraction&#10;T1015"/>
     <hyperlink ref="E6" location="T1034!A1" display="Brute force attack&#10;T1034"/>
     <hyperlink ref="F6" location="T1045!A1" display="Decode standard archive format&#10;T1045"/>
@@ -14354,7 +14387,7 @@
     <hyperlink ref="D16" location="T1028!A1" display="Chip-off&#10;T1028"/>
     <hyperlink ref="J16" location="T1070!A1" display="Email examination&#10;T1070"/>
     <hyperlink ref="L16" location="T1118!A1" display="Locate relevant files by path&#10;T1118"/>
-    <hyperlink ref="D17" location="T1029!A1" display="Data read from desoldered eMMC&#10;T1029"/>
+    <hyperlink ref="D17" location="T1029!A1" display="Access data from a desoldered eMMC via a chip reader&#10;T1029"/>
     <hyperlink ref="J17" location="T1072!A1" display="Chat app examination&#10;T1072"/>
     <hyperlink ref="D18" location="T1030!A1" display="Data read from unmanaged NAND&#10;T1030"/>
     <hyperlink ref="J18" location="T1073!A1" display="Calendar app examination&#10;T1073"/>
@@ -14387,7 +14420,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14423,7 +14456,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14439,7 +14472,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14447,7 +14480,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>345</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14463,7 +14496,7 @@
         <v>1915</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>818</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14471,7 +14504,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1934</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14479,7 +14512,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1946</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14545,7 +14578,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1947</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14700,39 +14733,39 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>1948</v>
+        <v>1954</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>1949</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>1950</v>
+        <v>1956</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>1951</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>1952</v>
+        <v>1958</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>1953</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>1342</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>1955</v>
+        <v>1961</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>1342</v>
@@ -14740,7 +14773,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>1956</v>
+        <v>1962</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>1342</v>
@@ -14748,38 +14781,46 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>1957</v>
+        <v>1963</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>1958</v>
+        <v>1964</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>1959</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>1345</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="10" t="s">
-        <v>1961</v>
+        <v>1967</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>1962</v>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="10" t="s">
+        <v>1968</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>1969</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B29:H29"/>
@@ -14790,6 +14831,7 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
@@ -14837,7 +14879,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1999</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14885,7 +14927,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2310</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14989,7 +15031,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1999</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15097,10 +15139,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2311</v>
+        <v>2322</v>
       </c>
     </row>
   </sheetData>
@@ -15152,7 +15194,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2299</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15260,10 +15302,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2312</v>
+        <v>2323</v>
       </c>
     </row>
   </sheetData>
@@ -15315,7 +15357,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15339,7 +15381,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2313</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15363,7 +15405,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2314</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -15423,10 +15465,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2315</v>
+        <v>2326</v>
       </c>
     </row>
   </sheetData>
@@ -15478,7 +15520,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15526,7 +15568,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2316</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -15586,10 +15628,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2317</v>
+        <v>2328</v>
       </c>
     </row>
   </sheetData>
@@ -15641,7 +15683,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15689,7 +15731,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2318</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -15749,10 +15791,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2319</v>
+        <v>2330</v>
       </c>
     </row>
   </sheetData>
@@ -15804,7 +15846,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15852,7 +15894,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2110</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -15956,7 +15998,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16004,7 +16046,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2320</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -16064,10 +16106,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2321</v>
+        <v>2332</v>
       </c>
     </row>
   </sheetData>
@@ -16119,7 +16161,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2299</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16143,7 +16185,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2322</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16227,18 +16269,18 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2323</v>
+        <v>2334</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2324</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2325</v>
+        <v>2336</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2324</v>
+        <v>2335</v>
       </c>
     </row>
   </sheetData>
@@ -16291,7 +16333,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2089</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16407,7 +16449,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16443,7 +16485,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16459,7 +16501,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1963</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16483,7 +16525,7 @@
         <v>1915</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>818</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16491,7 +16533,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>818</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -16499,7 +16541,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1964</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -16739,7 +16781,7 @@
         <v>345</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -16781,7 +16823,7 @@
         <v>1118</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -16789,7 +16831,7 @@
         <v>1122</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -16797,18 +16839,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>516</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B29:H29"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
     <hyperlink ref="B24" location="T1012!A1" display="Use hardware write blocker (T1012)"/>
@@ -16857,7 +16888,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2326</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17009,7 +17040,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17161,7 +17192,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17361,7 +17392,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2327</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -17465,7 +17496,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17617,7 +17648,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17769,7 +17800,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17921,7 +17952,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1989</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17945,7 +17976,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2328</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18056,7 +18087,7 @@
         <v>1484</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2329</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18066,7 +18097,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2330</v>
+        <v>2341</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>869</v>
@@ -18123,7 +18154,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18147,7 +18178,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2331</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18171,7 +18202,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2332</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -18305,7 +18336,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18345,7 +18376,7 @@
         <v>1915</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>818</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -18353,7 +18384,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2333</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -18498,7 +18529,7 @@
         <v>1448</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2334</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -18508,10 +18539,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="10" t="s">
-        <v>2335</v>
+        <v>2346</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2336</v>
+        <v>2347</v>
       </c>
     </row>
   </sheetData>
@@ -18565,7 +18596,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1966</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18581,7 +18612,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1967</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18589,7 +18620,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1968</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18613,7 +18644,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1969</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -18687,7 +18718,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1970</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -18700,7 +18731,7 @@
         <v>1293</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1971</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -18708,7 +18739,7 @@
         <v>1296</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1972</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -18734,7 +18765,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="10" t="s">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>733</v>
@@ -18742,7 +18773,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>733</v>
@@ -18750,26 +18781,26 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>1976</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>1978</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
     </row>
   </sheetData>
@@ -18828,7 +18859,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18868,7 +18899,7 @@
         <v>1915</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>818</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -18876,7 +18907,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2337</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -18884,7 +18915,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2338</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -18950,7 +18981,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2339</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18979,7 +19010,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2340</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19037,7 +19068,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2341</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19050,7 +19081,7 @@
         <v>1448</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2334</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -19116,7 +19147,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2335</v>
+        <v>2346</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>882</v>
@@ -19124,7 +19155,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2342</v>
+        <v>2352</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>882</v>
@@ -19132,7 +19163,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2343</v>
+        <v>2353</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>882</v>
@@ -19140,10 +19171,10 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2344</v>
+        <v>2354</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2345</v>
+        <v>2355</v>
       </c>
     </row>
   </sheetData>
@@ -19200,7 +19231,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19216,7 +19247,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2346</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19224,7 +19255,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2347</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19248,7 +19279,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1934</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -19337,18 +19368,18 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2054</v>
+        <v>2065</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2348</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>1958</v>
+        <v>1965</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2349</v>
+        <v>2360</v>
       </c>
     </row>
   </sheetData>
@@ -19402,7 +19433,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2326</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19458,7 +19489,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2350</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -19510,26 +19541,26 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2351</v>
+        <v>2362</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2352</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2353</v>
+        <v>2364</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2352</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2354</v>
+        <v>2365</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2352</v>
+        <v>2363</v>
       </c>
     </row>
   </sheetData>
@@ -19583,7 +19614,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19631,7 +19662,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1983</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -19639,7 +19670,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2355</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -19705,7 +19736,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2356</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19734,7 +19765,7 @@
         <v>479</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2357</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19763,7 +19794,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -19818,7 +19849,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2358</v>
+        <v>2370</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>895</v>
@@ -19874,7 +19905,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2293</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19890,7 +19921,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2359</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19922,7 +19953,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2360</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -19996,7 +20027,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2282</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -20054,7 +20085,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2283</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -20067,7 +20098,7 @@
         <v>1382</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2141</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -20091,7 +20122,7 @@
         <v>1702</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2284</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -20099,7 +20130,7 @@
         <v>1707</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2285</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -20107,7 +20138,7 @@
         <v>1709</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2286</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -20133,10 +20164,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2291</v>
+        <v>2302</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2292</v>
+        <v>2303</v>
       </c>
     </row>
   </sheetData>
@@ -20193,7 +20224,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2121</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20241,7 +20272,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2110</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -20249,7 +20280,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2361</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -20396,7 +20427,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="10" t="s">
-        <v>2362</v>
+        <v>2374</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>903</v>
@@ -20452,7 +20483,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2299</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20468,7 +20499,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2363</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20500,7 +20531,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2364</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -20508,7 +20539,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2365</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -20597,7 +20628,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2366</v>
+        <v>2378</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>915</v>
@@ -20605,7 +20636,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2367</v>
+        <v>2379</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>915</v>
@@ -20662,7 +20693,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20678,7 +20709,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2368</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20686,7 +20717,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2369</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20710,7 +20741,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2370</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -20718,7 +20749,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2371</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -20842,7 +20873,7 @@
         <v>479</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2372</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -20855,7 +20886,7 @@
         <v>1484</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2329</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -20897,18 +20928,18 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2373</v>
+        <v>2385</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2374</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>2375</v>
+        <v>2387</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
   </sheetData>
@@ -21011,7 +21042,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2377</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -21085,7 +21116,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2378</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -21114,7 +21145,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2379</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -21143,7 +21174,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2380</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -21172,7 +21203,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2381</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -21201,7 +21232,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2382</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -21222,7 +21253,7 @@
         <v>1201</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2383</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -21342,7 +21373,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2384</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21366,7 +21397,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2125</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -21374,7 +21405,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2385</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -21440,7 +21471,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2386</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -21469,7 +21500,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2127</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -21516,18 +21547,18 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2132</v>
+        <v>2143</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2133</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2128</v>
+        <v>2139</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2387</v>
+        <v>2399</v>
       </c>
     </row>
   </sheetData>
@@ -21581,7 +21612,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1966</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21597,7 +21628,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1981</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21629,7 +21660,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1982</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -21718,7 +21749,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>489</v>
@@ -21798,7 +21829,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2388</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21822,7 +21853,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2125</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -21896,7 +21927,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2389</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -21925,7 +21956,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2390</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -21988,10 +22019,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2128</v>
+        <v>2139</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2387</v>
+        <v>2399</v>
       </c>
     </row>
   </sheetData>
@@ -22060,7 +22091,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2391</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22092,7 +22123,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2125</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -22166,7 +22197,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2392</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -22187,7 +22218,7 @@
         <v>1201</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2383</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -22197,7 +22228,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2131</v>
+        <v>2142</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>597</v>
@@ -22270,7 +22301,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2393</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22278,7 +22309,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2394</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22302,7 +22333,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2125</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -22389,7 +22420,7 @@
         <v>1525</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2395</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -22399,7 +22430,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2131</v>
+        <v>2142</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>937</v>
@@ -22407,7 +22438,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2396</v>
+        <v>2408</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>937</v>
@@ -22415,7 +22446,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="10" t="s">
-        <v>2397</v>
+        <v>2409</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>937</v>
@@ -22490,7 +22521,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2393</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22522,7 +22553,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2125</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -22596,7 +22627,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2398</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -22625,7 +22656,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2398</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -22667,7 +22698,7 @@
         <v>1497</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2399</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -22675,7 +22706,7 @@
         <v>1500</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2400</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -22693,7 +22724,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2131</v>
+        <v>2142</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>921</v>
@@ -22701,7 +22732,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2396</v>
+        <v>2408</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>921</v>
@@ -22776,7 +22807,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2393</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22784,7 +22815,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2401</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22808,7 +22839,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2125</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -22905,18 +22936,18 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2131</v>
+        <v>2142</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2402</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2397</v>
+        <v>2409</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2402</v>
+        <v>2414</v>
       </c>
     </row>
   </sheetData>
@@ -22970,7 +23001,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2154</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -22986,7 +23017,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2403</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22994,7 +23025,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2404</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23122,7 +23153,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2154</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -23230,18 +23261,18 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2405</v>
+        <v>2417</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2406</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2143</v>
+        <v>2154</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2406</v>
+        <v>2418</v>
       </c>
     </row>
   </sheetData>
@@ -23294,7 +23325,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2154</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -23318,7 +23349,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2407</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23342,7 +23373,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2408</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -23446,7 +23477,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2154</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -23494,7 +23525,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2409</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -23554,10 +23585,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2156</v>
+        <v>2167</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2410</v>
+        <v>2422</v>
       </c>
     </row>
   </sheetData>
@@ -23609,7 +23640,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2154</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -23625,7 +23656,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2411</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -23657,7 +23688,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2409</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -23717,10 +23748,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2156</v>
+        <v>2167</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2412</v>
+        <v>2424</v>
       </c>
     </row>
   </sheetData>
@@ -23772,7 +23803,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1966</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -23820,7 +23851,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1983</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -23828,7 +23859,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1984</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -23894,7 +23925,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1985</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -23981,7 +24012,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24010,7 +24041,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -24023,7 +24054,7 @@
         <v>1118</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -24031,7 +24062,7 @@
         <v>1122</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -24073,7 +24104,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>496</v>
@@ -24131,7 +24162,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24155,7 +24186,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2413</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24179,7 +24210,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2414</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -24187,7 +24218,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2415</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -24253,7 +24284,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2416</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -24282,7 +24313,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2417</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -24311,7 +24342,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2416</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -24340,7 +24371,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2418</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24369,7 +24400,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2419</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -24398,7 +24429,7 @@
         <v>345</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2420</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -24456,7 +24487,7 @@
         <v>345</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2421</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -24485,7 +24516,7 @@
         <v>345</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2422</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -24514,7 +24545,7 @@
         <v>345</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2423</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -24543,7 +24574,7 @@
         <v>345</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2424</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -24572,7 +24603,7 @@
         <v>345</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2425</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -24630,7 +24661,7 @@
         <v>345</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2426</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -24659,7 +24690,7 @@
         <v>345</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2427</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -24688,7 +24719,7 @@
         <v>345</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2428</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -24717,7 +24748,7 @@
         <v>345</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2428</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -24746,7 +24777,7 @@
         <v>345</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2429</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -24775,7 +24806,7 @@
         <v>345</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2430</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -24804,7 +24835,7 @@
         <v>477</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2431</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -24833,7 +24864,7 @@
         <v>345</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2432</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -24862,7 +24893,7 @@
         <v>345</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2433</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -24891,7 +24922,7 @@
         <v>345</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2434</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -24920,7 +24951,7 @@
         <v>345</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>2435</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -24949,7 +24980,7 @@
         <v>345</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>2436</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -24978,7 +25009,7 @@
         <v>345</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>2437</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -25007,7 +25038,7 @@
         <v>345</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>2438</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -25190,7 +25221,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="10" t="s">
-        <v>2439</v>
+        <v>2451</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>940</v>
@@ -25198,7 +25229,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="B68" s="10" t="s">
-        <v>2440</v>
+        <v>2452</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>940</v>
@@ -25271,7 +25302,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2441</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25279,7 +25310,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2442</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -25303,7 +25334,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -25311,7 +25342,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2444</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -25377,7 +25408,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2445</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -25406,7 +25437,7 @@
         <v>477</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2446</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -25464,7 +25495,7 @@
         <v>477</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2447</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -25509,7 +25540,7 @@
         <v>1689</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2448</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -25535,7 +25566,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2291</v>
+        <v>2302</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>1053</v>
@@ -25608,7 +25639,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2449</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25616,7 +25647,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2450</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -25640,7 +25671,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2451</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -25714,7 +25745,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2452</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -25772,7 +25803,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2453</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -25830,7 +25861,7 @@
         <v>479</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2454</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -25967,7 +25998,7 @@
         <v>1291</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2455</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -25975,7 +26006,7 @@
         <v>1625</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>2456</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -25999,7 +26030,7 @@
         <v>1634</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>2457</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -26009,15 +26040,15 @@
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="10" t="s">
-        <v>2458</v>
+        <v>2470</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2459</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="10" t="s">
-        <v>2460</v>
+        <v>2472</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>1290</v>
@@ -26025,18 +26056,18 @@
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="10" t="s">
-        <v>2461</v>
+        <v>2473</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2462</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="10" t="s">
-        <v>2463</v>
+        <v>2475</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>2464</v>
+        <v>2476</v>
       </c>
     </row>
   </sheetData>
@@ -26111,7 +26142,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2465</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26143,7 +26174,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2466</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -26240,10 +26271,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2467</v>
+        <v>2479</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2468</v>
+        <v>2480</v>
       </c>
     </row>
   </sheetData>
@@ -26648,7 +26679,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2469</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -26830,7 +26861,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2470</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -27012,7 +27043,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2471</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -27251,7 +27282,7 @@
         <v>1622</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2472</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27261,10 +27292,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2473</v>
+        <v>2485</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2474</v>
+        <v>2486</v>
       </c>
     </row>
   </sheetData>
@@ -27282,7 +27313,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27318,7 +27349,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1966</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -27419,23 +27450,12 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>1987</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B19:H19"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
   </hyperlinks>
@@ -27681,7 +27701,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2471</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -27833,7 +27853,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2475</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -27953,7 +27973,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2476</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27961,7 +27981,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2477</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -28045,10 +28065,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2478</v>
+        <v>2490</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2479</v>
+        <v>2491</v>
       </c>
     </row>
   </sheetData>
@@ -28100,7 +28120,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -28116,7 +28136,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2480</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -28124,7 +28144,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2481</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -28148,7 +28168,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2482</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -28156,7 +28176,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2483</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -28208,34 +28228,34 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2484</v>
+        <v>2496</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2485</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2486</v>
+        <v>2498</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2485</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2487</v>
+        <v>2499</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2485</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2488</v>
+        <v>2500</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2485</v>
+        <v>2497</v>
       </c>
     </row>
   </sheetData>
@@ -28338,7 +28358,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2184</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -28412,7 +28432,7 @@
         <v>479</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2489</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -28441,7 +28461,7 @@
         <v>479</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2489</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -28470,7 +28490,7 @@
         <v>479</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2490</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -28499,7 +28519,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2491</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -28528,7 +28548,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2492</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -28557,7 +28577,7 @@
         <v>479</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2493</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -28652,15 +28672,15 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="10" t="s">
-        <v>2181</v>
+        <v>2192</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2494</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="10" t="s">
-        <v>2172</v>
+        <v>2183</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>780</v>
@@ -28733,7 +28753,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2495</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -28741,7 +28761,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2496</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -28765,7 +28785,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2125</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -28773,7 +28793,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2497</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -28839,7 +28859,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2498</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -28852,7 +28872,7 @@
         <v>1648</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2499</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -28860,7 +28880,7 @@
         <v>1651</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2500</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -28870,7 +28890,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2501</v>
+        <v>2513</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>1046</v>
@@ -28952,7 +28972,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2502</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -28976,7 +28996,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2503</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -29050,7 +29070,7 @@
         <v>477</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2504</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -29166,7 +29186,7 @@
         <v>1702</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2284</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -29184,10 +29204,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2291</v>
+        <v>2302</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2292</v>
+        <v>2303</v>
       </c>
     </row>
   </sheetData>
@@ -29241,7 +29261,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2293</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -29257,7 +29277,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2505</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -29289,7 +29309,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2506</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -29349,18 +29369,18 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2507</v>
+        <v>2519</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2508</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2509</v>
+        <v>2521</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2508</v>
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -29413,7 +29433,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2293</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -29429,7 +29449,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2510</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -29437,7 +29457,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2511</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -29461,7 +29481,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2512</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -29529,7 +29549,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29565,7 +29585,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1966</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -29666,23 +29686,12 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>1988</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B19:H19"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
   </hyperlinks>
@@ -29728,7 +29737,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2293</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -29752,7 +29761,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2513</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -29776,7 +29785,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2514</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -29880,7 +29889,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -29912,7 +29921,7 @@
         <v>1914</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2515</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -29928,7 +29937,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2516</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -29936,7 +29945,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2517</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -30002,7 +30011,7 @@
         <v>477</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -30060,7 +30069,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -30184,7 +30193,7 @@
         <v>1155</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2022</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -30218,26 +30227,26 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2518</v>
+        <v>2530</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2519</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2520</v>
+        <v>2532</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2519</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2521</v>
+        <v>2533</v>
       </c>
     </row>
   </sheetData>
@@ -30293,7 +30302,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -30349,7 +30358,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2522</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -30415,7 +30424,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2523</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -30428,7 +30437,7 @@
         <v>1370</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2023</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -30436,7 +30445,7 @@
         <v>1727</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2024</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -30444,7 +30453,7 @@
         <v>1731</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2025</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -30452,7 +30461,7 @@
         <v>1733</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2026</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -30460,7 +30469,7 @@
         <v>1738</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2524</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -30468,7 +30477,7 @@
         <v>1741</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2525</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -30478,18 +30487,18 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2520</v>
+        <v>2532</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2526</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2527</v>
+        <v>2539</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2528</v>
+        <v>2540</v>
       </c>
     </row>
   </sheetData>
@@ -30549,7 +30558,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -30573,7 +30582,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2529</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -30605,7 +30614,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2530</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -30694,7 +30703,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2531</v>
+        <v>2543</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>1089</v>
@@ -30702,7 +30711,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2532</v>
+        <v>2544</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>1089</v>
@@ -30710,10 +30719,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="10" t="s">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2533</v>
+        <v>2545</v>
       </c>
     </row>
   </sheetData>
@@ -30768,7 +30777,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -30816,7 +30825,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2534</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -30876,10 +30885,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2535</v>
+        <v>2547</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2536</v>
+        <v>2548</v>
       </c>
     </row>
   </sheetData>
@@ -30931,7 +30940,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -30947,7 +30956,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2537</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -30963,7 +30972,7 @@
         <v>1914</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2538</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -30979,7 +30988,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1934</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -31039,10 +31048,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2539</v>
+        <v>2551</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2540</v>
+        <v>2552</v>
       </c>
     </row>
   </sheetData>
@@ -31094,7 +31103,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -31142,7 +31151,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2541</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -31202,18 +31211,18 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2542</v>
+        <v>2554</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2543</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2544</v>
+        <v>2556</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2543</v>
+        <v>2555</v>
       </c>
     </row>
   </sheetData>
@@ -31266,7 +31275,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1989</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -31290,7 +31299,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1990</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -31469,10 +31478,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="10" t="s">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>1992</v>
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
@@ -31525,7 +31534,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1989</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -31677,7 +31686,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1989</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -31701,7 +31710,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1993</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -31717,7 +31726,7 @@
         <v>1915</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>818</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -31725,7 +31734,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>818</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -31799,7 +31808,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1994</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -31912,10 +31921,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>1996</v>
+        <v>2004</v>
       </c>
     </row>
   </sheetData>
@@ -31944,23 +31953,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2545</v>
+        <v>2557</v>
       </c>
       <c r="B1" t="s">
-        <v>2546</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2547</v>
+        <v>2559</v>
       </c>
       <c r="B2" t="s">
-        <v>2548</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2549</v>
+        <v>2561</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -31968,7 +31977,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2550</v>
+        <v>2562</v>
       </c>
       <c r="B4">
         <v>160</v>
@@ -31976,7 +31985,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2551</v>
+        <v>2563</v>
       </c>
       <c r="B5">
         <v>270</v>
@@ -31984,7 +31993,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2552</v>
+        <v>2564</v>
       </c>
       <c r="B6">
         <v>233</v>
@@ -31992,7 +32001,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2553</v>
+        <v>2565</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -32000,7 +32009,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2554</v>
+        <v>2566</v>
       </c>
       <c r="B8">
         <v>0.44</v>
@@ -32049,7 +32058,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1989</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32089,7 +32098,7 @@
         <v>1915</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>818</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -32097,7 +32106,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>818</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -32157,10 +32166,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>1998</v>
+        <v>2007</v>
       </c>
     </row>
   </sheetData>
@@ -32212,7 +32221,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1999</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32320,10 +32329,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2000</v>
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -32375,7 +32384,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32431,7 +32440,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2001</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -32497,7 +32506,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2002</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -32584,7 +32593,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2002</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -32623,7 +32632,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>533</v>
@@ -32679,7 +32688,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32695,7 +32704,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2003</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -32703,7 +32712,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2004</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -32727,7 +32736,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2005</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -32735,7 +32744,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2006</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -32859,7 +32868,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2007</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -32898,7 +32907,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>554</v>
@@ -32906,7 +32915,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>554</v>
@@ -32914,18 +32923,18 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -32981,7 +32990,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33029,7 +33038,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2014</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -33133,7 +33142,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33181,7 +33190,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2015</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -33241,10 +33250,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2016</v>
+        <v>2026</v>
       </c>
     </row>
   </sheetData>
@@ -33344,7 +33353,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2017</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -33352,7 +33361,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -33418,7 +33427,7 @@
         <v>477</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -33505,7 +33514,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -33563,7 +33572,7 @@
         <v>345</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -33600,7 +33609,7 @@
         <v>1155</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2022</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -33616,7 +33625,7 @@
         <v>1370</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>2023</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -33624,7 +33633,7 @@
         <v>1727</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>2024</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -33632,7 +33641,7 @@
         <v>1731</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>2025</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -33640,7 +33649,7 @@
         <v>1733</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>2026</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -33700,7 +33709,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33724,7 +33733,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2027</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -33748,7 +33757,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2017</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -33967,7 +33976,7 @@
         <v>345</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2028</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -33980,7 +33989,7 @@
         <v>1415</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2029</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -33996,7 +34005,7 @@
         <v>1421</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -34004,7 +34013,7 @@
         <v>1424</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2031</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -34012,7 +34021,7 @@
         <v>1426</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2032</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -34022,7 +34031,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2033</v>
+        <v>2043</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>840</v>
@@ -34030,7 +34039,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2034</v>
+        <v>2044</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>840</v>
@@ -34038,7 +34047,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>840</v>
@@ -34100,7 +34109,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -34148,7 +34157,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2037</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -34156,7 +34165,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2038</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -34252,7 +34261,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -34360,10 +34369,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2034</v>
+        <v>2044</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2039</v>
+        <v>2049</v>
       </c>
     </row>
   </sheetData>
@@ -36832,7 +36841,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -36880,7 +36889,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2017</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -36984,7 +36993,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37032,7 +37041,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2017</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -37100,7 +37109,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37136,7 +37145,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37152,7 +37161,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2040</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -37160,7 +37169,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2041</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -37176,7 +37185,7 @@
         <v>1915</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>818</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -37184,7 +37193,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1934</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -37192,7 +37201,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2042</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -37266,7 +37275,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>1125</v>
       </c>
@@ -37274,23 +37283,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B21:H21"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
   </hyperlinks>
@@ -37337,7 +37335,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37385,7 +37383,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2017</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -37511,10 +37509,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2043</v>
+        <v>2055</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2044</v>
+        <v>2056</v>
       </c>
     </row>
   </sheetData>
@@ -37675,10 +37673,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2045</v>
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
@@ -37730,7 +37728,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37838,10 +37836,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2046</v>
+        <v>2058</v>
       </c>
     </row>
   </sheetData>
@@ -37857,7 +37855,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37893,7 +37891,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37941,7 +37939,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -37994,23 +37992,12 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>2047</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B19:H19"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
   </hyperlinks>
@@ -38056,7 +38043,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -38164,10 +38151,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2048</v>
+        <v>2059</v>
       </c>
     </row>
   </sheetData>
@@ -38219,7 +38206,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -38267,7 +38254,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2050</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -38275,7 +38262,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2051</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -38401,7 +38388,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="10" t="s">
-        <v>2052</v>
+        <v>2063</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>579</v>
@@ -38409,7 +38396,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="10" t="s">
-        <v>2053</v>
+        <v>2064</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>579</v>
@@ -38417,7 +38404,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2054</v>
+        <v>2065</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>579</v>
@@ -38475,7 +38462,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -38583,10 +38570,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2055</v>
+        <v>2066</v>
       </c>
     </row>
   </sheetData>
@@ -41057,7 +41044,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41105,7 +41092,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2056</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -41209,7 +41196,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41225,7 +41212,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2057</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -41233,7 +41220,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2058</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -41257,7 +41244,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2059</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -41331,7 +41318,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2060</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -41360,7 +41347,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2061</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -41389,7 +41376,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2060</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -41402,7 +41389,7 @@
         <v>1370</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2023</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -41418,7 +41405,7 @@
         <v>1377</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2062</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -41444,7 +41431,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2063</v>
+        <v>2074</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>794</v>
@@ -41452,10 +41439,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2064</v>
+        <v>2075</v>
       </c>
     </row>
   </sheetData>
@@ -41511,7 +41498,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41535,7 +41522,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2065</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -41559,7 +41546,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2059</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -41633,7 +41620,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2066</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -41662,7 +41649,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2067</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -41691,7 +41678,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2068</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -41752,7 +41739,7 @@
         <v>1370</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2023</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -41778,7 +41765,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2069</v>
+        <v>2080</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>787</v>
@@ -41786,34 +41773,34 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2070</v>
+        <v>2081</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2071</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2072</v>
+        <v>2083</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2073</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2074</v>
+        <v>2085</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2073</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2064</v>
+        <v>2075</v>
       </c>
     </row>
   </sheetData>
@@ -41871,7 +41858,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41919,7 +41906,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2075</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -42023,7 +42010,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42071,7 +42058,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2059</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -42175,7 +42162,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42223,7 +42210,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2059</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -42283,10 +42270,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2076</v>
+        <v>2087</v>
       </c>
     </row>
   </sheetData>
@@ -42338,7 +42325,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42446,18 +42433,18 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2077</v>
+        <v>2088</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2078</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2079</v>
+        <v>2090</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2078</v>
+        <v>2089</v>
       </c>
     </row>
   </sheetData>
@@ -42510,7 +42497,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42558,7 +42545,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2080</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -42566,7 +42553,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2081</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -42676,26 +42663,26 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2082</v>
+        <v>2093</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2083</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2084</v>
+        <v>2095</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2085</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="10" t="s">
-        <v>2086</v>
+        <v>2097</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2087</v>
+        <v>2098</v>
       </c>
     </row>
   </sheetData>
@@ -42750,7 +42737,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42858,10 +42845,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2088</v>
+        <v>2099</v>
       </c>
     </row>
   </sheetData>
@@ -42913,7 +42900,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2089</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42961,7 +42948,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2090</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -43035,7 +43022,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2091</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -43064,7 +43051,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2092</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -43093,7 +43080,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2092</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -43122,7 +43109,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2092</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -43180,7 +43167,7 @@
         <v>345</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2093</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -43259,7 +43246,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2094</v>
+        <v>2105</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>573</v>
@@ -43267,7 +43254,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2095</v>
+        <v>2106</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>573</v>
@@ -43275,7 +43262,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>2096</v>
+        <v>2107</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>573</v>
@@ -43283,15 +43270,15 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="10" t="s">
-        <v>2097</v>
+        <v>2108</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2098</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="10" t="s">
-        <v>2099</v>
+        <v>2110</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>1309</v>
@@ -48391,7 +48378,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2089</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48407,7 +48394,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2100</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -48415,7 +48402,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2101</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -48439,7 +48426,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2015</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -48447,7 +48434,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2102</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -48600,7 +48587,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2103</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -48613,7 +48600,7 @@
         <v>1107</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -48679,15 +48666,15 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2104</v>
+        <v>2115</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2105</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2106</v>
+        <v>2117</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>750</v>
@@ -48695,10 +48682,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2097</v>
+        <v>2108</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2107</v>
+        <v>2118</v>
       </c>
     </row>
   </sheetData>
@@ -48754,7 +48741,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2089</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48802,7 +48789,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2108</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -48876,7 +48863,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2109</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -48905,7 +48892,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2109</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -48934,7 +48921,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2109</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -48963,7 +48950,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2109</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -49060,7 +49047,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>584</v>
@@ -49116,7 +49103,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2089</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49164,7 +49151,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2110</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -49238,7 +49225,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2111</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -49322,7 +49309,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2112</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49370,7 +49357,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2113</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -49474,7 +49461,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2112</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49522,7 +49509,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2114</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -49611,18 +49598,18 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2115</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2097</v>
+        <v>2108</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2116</v>
+        <v>2127</v>
       </c>
     </row>
   </sheetData>
@@ -49676,7 +49663,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2112</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49700,7 +49687,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2117</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -49724,7 +49711,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2118</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -49784,10 +49771,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2119</v>
+        <v>2130</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2120</v>
+        <v>2131</v>
       </c>
     </row>
   </sheetData>
@@ -49839,7 +49826,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2121</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49855,7 +49842,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2122</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -49863,7 +49850,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2123</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -49871,7 +49858,7 @@
         <v>1914</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2124</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -49887,7 +49874,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2125</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -49961,7 +49948,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2126</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -50019,7 +50006,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2127</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -50119,15 +50106,15 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2128</v>
+        <v>2139</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2129</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2130</v>
+        <v>2141</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>600</v>
@@ -50135,7 +50122,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2131</v>
+        <v>2142</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>600</v>
@@ -50143,10 +50130,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2132</v>
+        <v>2143</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2133</v>
+        <v>2144</v>
       </c>
     </row>
   </sheetData>
@@ -50202,7 +50189,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2121</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50250,7 +50237,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2134</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -50339,18 +50326,18 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2135</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2097</v>
+        <v>2108</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2116</v>
+        <v>2127</v>
       </c>
     </row>
   </sheetData>
@@ -50404,7 +50391,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2121</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50452,7 +50439,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2134</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -50512,10 +50499,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2136</v>
+        <v>2147</v>
       </c>
     </row>
   </sheetData>
@@ -50567,7 +50554,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50583,7 +50570,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2137</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -50599,7 +50586,7 @@
         <v>1914</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2138</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -50615,7 +50602,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2139</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -50623,7 +50610,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2140</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -50847,7 +50834,7 @@
         <v>1382</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2141</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -50857,7 +50844,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2142</v>
+        <v>2153</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>803</v>
@@ -50865,10 +50852,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2143</v>
+        <v>2154</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2144</v>
+        <v>2155</v>
       </c>
     </row>
   </sheetData>
@@ -54914,7 +54901,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55022,10 +55009,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2145</v>
+        <v>2156</v>
       </c>
     </row>
   </sheetData>
@@ -55077,7 +55064,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55101,7 +55088,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2147</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -55125,7 +55112,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2148</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -55199,7 +55186,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2149</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -55228,7 +55215,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2150</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -55257,7 +55244,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2150</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -55349,7 +55336,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55457,10 +55444,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2151</v>
+        <v>2162</v>
       </c>
     </row>
   </sheetData>
@@ -55512,7 +55499,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55560,7 +55547,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2152</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -55620,10 +55607,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2153</v>
+        <v>2164</v>
       </c>
     </row>
   </sheetData>
@@ -55675,7 +55662,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2154</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55723,7 +55710,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2155</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -55783,10 +55770,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2156</v>
+        <v>2167</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2157</v>
+        <v>2168</v>
       </c>
     </row>
   </sheetData>
@@ -55838,7 +55825,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2154</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55862,7 +55849,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2158</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -55886,7 +55873,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2159</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -55946,10 +55933,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2160</v>
+        <v>2171</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2161</v>
+        <v>2172</v>
       </c>
     </row>
   </sheetData>
@@ -56001,7 +55988,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2162</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56017,7 +56004,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2163</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56025,7 +56012,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2164</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -56049,7 +56036,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2165</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -56057,7 +56044,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2166</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -56123,7 +56110,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2167</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -56152,7 +56139,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2168</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -56210,7 +56197,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2169</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -56239,7 +56226,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2170</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -56326,7 +56313,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2171</v>
+        <v>2182</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>625</v>
@@ -56334,7 +56321,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2172</v>
+        <v>2183</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>625</v>
@@ -56342,7 +56329,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>2173</v>
+        <v>2184</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>1232</v>
@@ -56350,7 +56337,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="10" t="s">
-        <v>2097</v>
+        <v>2108</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>1227</v>
@@ -56358,7 +56345,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="10" t="s">
-        <v>2174</v>
+        <v>2185</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>1227</v>
@@ -56366,10 +56353,10 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="10" t="s">
-        <v>2175</v>
+        <v>2186</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>2176</v>
+        <v>2187</v>
       </c>
     </row>
   </sheetData>
@@ -56427,7 +56414,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2162</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56443,7 +56430,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2177</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56475,7 +56462,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2178</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -56483,7 +56470,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2179</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -56549,7 +56536,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -56578,7 +56565,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -56607,7 +56594,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -56636,7 +56623,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -56665,7 +56652,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -56694,7 +56681,7 @@
         <v>345</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -56723,7 +56710,7 @@
         <v>345</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -56752,7 +56739,7 @@
         <v>345</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -56781,7 +56768,7 @@
         <v>345</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -56810,7 +56797,7 @@
         <v>479</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -56839,7 +56826,7 @@
         <v>479</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -56868,7 +56855,7 @@
         <v>345</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -56897,7 +56884,7 @@
         <v>345</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -56926,7 +56913,7 @@
         <v>345</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -56955,7 +56942,7 @@
         <v>345</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -56984,7 +56971,7 @@
         <v>345</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -57013,7 +57000,7 @@
         <v>345</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -57060,7 +57047,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="10" t="s">
-        <v>2181</v>
+        <v>2192</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>636</v>
@@ -57068,7 +57055,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="B41" s="10" t="s">
-        <v>2172</v>
+        <v>2183</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>636</v>
@@ -57125,7 +57112,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2162</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57141,7 +57128,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2182</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57157,7 +57144,7 @@
         <v>1914</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2183</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57173,7 +57160,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2184</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -57270,15 +57257,15 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2181</v>
+        <v>2192</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2185</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2097</v>
+        <v>2108</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>1337</v>
@@ -57335,7 +57322,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2162</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57359,7 +57346,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2186</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -57383,7 +57370,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2187</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -57443,10 +57430,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2188</v>
+        <v>2199</v>
       </c>
     </row>
   </sheetData>
@@ -57650,7 +57637,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2162</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57674,7 +57661,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2189</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -57698,7 +57685,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2190</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -57772,7 +57759,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2191</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -57801,7 +57788,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2192</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -57830,7 +57817,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2191</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -57877,7 +57864,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2193</v>
+        <v>2204</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>767</v>
@@ -57885,42 +57872,42 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2097</v>
+        <v>2108</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2194</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>2195</v>
+        <v>2206</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2196</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>2197</v>
+        <v>2208</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2198</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2199</v>
+        <v>2210</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2198</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2198</v>
+        <v>2209</v>
       </c>
     </row>
   </sheetData>
@@ -58002,7 +57989,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2201</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -58026,7 +58013,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2202</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -58034,7 +58021,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2203</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -58129,7 +58116,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2204</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -58158,7 +58145,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2204</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -58216,7 +58203,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2205</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -58229,7 +58216,7 @@
         <v>1273</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2206</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -58295,7 +58282,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2207</v>
+        <v>2218</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>708</v>
@@ -58303,7 +58290,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2208</v>
+        <v>2219</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>708</v>
@@ -58311,10 +58298,10 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2209</v>
+        <v>2220</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2210</v>
+        <v>2221</v>
       </c>
     </row>
   </sheetData>
@@ -58370,7 +58357,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58394,7 +58381,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2212</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -58418,7 +58405,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2213</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -58426,7 +58413,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2214</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -58478,18 +58465,18 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2215</v>
+        <v>2226</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2216</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2217</v>
+        <v>2228</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2216</v>
+        <v>2227</v>
       </c>
     </row>
   </sheetData>
@@ -58542,7 +58529,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58590,7 +58577,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2218</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -58650,10 +58637,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2219</v>
+        <v>2230</v>
       </c>
     </row>
   </sheetData>
@@ -58705,7 +58692,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58813,10 +58800,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2220</v>
+        <v>2231</v>
       </c>
     </row>
   </sheetData>
@@ -58868,7 +58855,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58892,7 +58879,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2221</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -58916,7 +58903,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2222</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -58976,10 +58963,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2223</v>
+        <v>2234</v>
       </c>
     </row>
   </sheetData>
@@ -59031,7 +59018,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59055,7 +59042,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2225</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -59063,7 +59050,7 @@
         <v>1914</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2226</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -59079,7 +59066,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2227</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -59224,7 +59211,7 @@
         <v>1610</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2228</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -59232,7 +59219,7 @@
         <v>1613</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2229</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -59250,7 +59237,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2230</v>
+        <v>2241</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>730</v>
@@ -59258,7 +59245,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2231</v>
+        <v>2242</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>730</v>
@@ -59317,7 +59304,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59365,7 +59352,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2232</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -59469,7 +59456,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59485,7 +59472,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2233</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -59517,7 +59504,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2234</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -59525,7 +59512,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2235</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -59591,7 +59578,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2236</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -59620,7 +59607,7 @@
         <v>479</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2237</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -59773,7 +59760,7 @@
         <v>1435</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2238</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -59815,7 +59802,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2239</v>
+        <v>2250</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>856</v>
@@ -59823,26 +59810,26 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2240</v>
+        <v>2251</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2241</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>2242</v>
+        <v>2253</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2243</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="10" t="s">
-        <v>2244</v>
+        <v>2255</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2245</v>
+        <v>2256</v>
       </c>
     </row>
   </sheetData>
@@ -59899,7 +59886,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59915,7 +59902,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2246</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -59923,7 +59910,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2247</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -59947,7 +59934,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2248</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -60021,7 +60008,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2249</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -60050,7 +60037,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2250</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -60079,7 +60066,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -60108,7 +60095,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -60137,7 +60124,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2252</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -60166,7 +60153,7 @@
         <v>345</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2252</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -60195,7 +60182,7 @@
         <v>345</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2252</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -60224,7 +60211,7 @@
         <v>345</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2252</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -60253,7 +60240,7 @@
         <v>479</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -60282,7 +60269,7 @@
         <v>345</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -60311,7 +60298,7 @@
         <v>345</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -60340,7 +60327,7 @@
         <v>345</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2249</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -60369,7 +60356,7 @@
         <v>345</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2249</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -60398,7 +60385,7 @@
         <v>345</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -60427,7 +60414,7 @@
         <v>345</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -60456,7 +60443,7 @@
         <v>345</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -60485,7 +60472,7 @@
         <v>345</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -60514,7 +60501,7 @@
         <v>479</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -60577,26 +60564,26 @@
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="10" t="s">
-        <v>2253</v>
+        <v>2264</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>2254</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="10" t="s">
-        <v>2255</v>
+        <v>2266</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>2256</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="10" t="s">
-        <v>2257</v>
+        <v>2268</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>2258</v>
+        <v>2269</v>
       </c>
     </row>
   </sheetData>
@@ -60691,7 +60678,7 @@
         <v>1915</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>818</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -60699,7 +60686,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -60802,7 +60789,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -60852,7 +60839,7 @@
         <v>1118</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -60860,7 +60847,7 @@
         <v>1122</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -60870,7 +60857,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>478</v>
@@ -60878,7 +60865,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>478</v>
@@ -60937,7 +60924,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -60985,7 +60972,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2259</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -61089,7 +61076,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -61241,7 +61228,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -61393,7 +61380,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -61417,7 +61404,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2260</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -61441,7 +61428,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2261</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -61449,7 +61436,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2262</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -61515,7 +61502,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2263</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -61573,7 +61560,7 @@
         <v>345</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2264</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -61631,7 +61618,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2265</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -61689,7 +61676,7 @@
         <v>477</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2266</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -61718,7 +61705,7 @@
         <v>345</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2267</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -61858,10 +61845,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="10" t="s">
-        <v>2268</v>
+        <v>2279</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>2269</v>
+        <v>2280</v>
       </c>
     </row>
   </sheetData>
@@ -61914,7 +61901,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -62066,7 +62053,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -62218,7 +62205,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -62326,10 +62313,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2270</v>
+        <v>2281</v>
       </c>
     </row>
   </sheetData>
@@ -62381,7 +62368,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -62413,7 +62400,7 @@
         <v>1914</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2271</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -62489,10 +62476,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2272</v>
+        <v>2283</v>
       </c>
     </row>
   </sheetData>
@@ -62544,7 +62531,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -62652,10 +62639,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2273</v>
+        <v>2284</v>
       </c>
     </row>
   </sheetData>
@@ -62707,7 +62694,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -62815,10 +62802,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2274</v>
+        <v>2285</v>
       </c>
     </row>
   </sheetData>
@@ -62870,7 +62857,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -62894,7 +62881,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>345</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -62910,7 +62897,7 @@
         <v>1915</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>818</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -62918,7 +62905,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -62926,7 +62913,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -62992,7 +62979,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -63079,7 +63066,7 @@
         <v>345</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -63108,7 +63095,7 @@
         <v>345</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -63245,7 +63232,7 @@
         <v>1107</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -63269,7 +63256,7 @@
         <v>1118</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -63277,7 +63264,7 @@
         <v>1122</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -63303,7 +63290,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="10" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>486</v>
@@ -63311,26 +63298,26 @@
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="10" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="10" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="10" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
     </row>
   </sheetData>
@@ -63389,7 +63376,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -63541,7 +63528,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2275</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -63649,10 +63636,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2276</v>
+        <v>2287</v>
       </c>
     </row>
   </sheetData>
@@ -63704,7 +63691,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2275</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -63812,10 +63799,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2277</v>
+        <v>2288</v>
       </c>
     </row>
   </sheetData>
@@ -63867,7 +63854,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2121</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -63883,7 +63870,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2278</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -63891,7 +63878,7 @@
         <v>1913</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2279</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -63899,7 +63886,7 @@
         <v>1914</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2280</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -63915,7 +63902,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2139</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -63923,7 +63910,7 @@
         <v>1917</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2281</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -63989,7 +63976,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2282</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -64018,7 +64005,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2283</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -64031,7 +64018,7 @@
         <v>1382</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2141</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -64047,7 +64034,7 @@
         <v>1702</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2284</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -64055,7 +64042,7 @@
         <v>1707</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2285</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -64063,7 +64050,7 @@
         <v>1709</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2286</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -64089,42 +64076,42 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>2287</v>
+        <v>2298</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2288</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>2289</v>
+        <v>2300</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2288</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2290</v>
+        <v>2301</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2288</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2142</v>
+        <v>2153</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2288</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2291</v>
+        <v>2302</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2292</v>
+        <v>2303</v>
       </c>
     </row>
   </sheetData>
@@ -64185,7 +64172,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2293</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -64233,7 +64220,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2294</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -64337,7 +64324,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2293</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -64353,7 +64340,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2295</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -64385,7 +64372,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2296</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -64445,10 +64432,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2297</v>
+        <v>2308</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2298</v>
+        <v>2309</v>
       </c>
     </row>
   </sheetData>
@@ -64500,7 +64487,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2299</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -64608,10 +64595,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2300</v>
+        <v>2311</v>
       </c>
     </row>
   </sheetData>
@@ -64663,7 +64650,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>2299</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -64771,10 +64758,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>1965</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2301</v>
+        <v>2312</v>
       </c>
     </row>
   </sheetData>
@@ -64826,7 +64813,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1999</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -64842,7 +64829,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2302</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -64874,7 +64861,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2303</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -65037,7 +65024,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="s">
-        <v>1999</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -65053,7 +65040,7 @@
         <v>1912</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2304</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -65085,7 +65072,7 @@
         <v>1916</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2305</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -65159,7 +65146,7 @@
         <v>345</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2306</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -65188,7 +65175,7 @@
         <v>345</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2307</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -65272,7 +65259,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2308</v>
+        <v>2319</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>823</v>
@@ -65280,7 +65267,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>2309</v>
+        <v>2320</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>823</v>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13169,7 +13169,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T02:07:15.516282+00:00</t>
+    <t>2026-02-23T10:18:52.456657+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13169,7 +13169,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T10:18:52.456657+00:00</t>
+    <t>2026-02-23T10:21:16.602272+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T11:41:29.080248+00:00</t>
+    <t>2026-02-23T12:16:51.170324+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T12:16:51.170324+00:00</t>
+    <t>2026-02-23T14:36:33.882061+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T14:36:33.882061+00:00</t>
+    <t>2026-02-23T21:49:11.453766+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T21:49:11.453766+00:00</t>
+    <t>2026-02-23T22:01:17.455377+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T22:01:17.455377+00:00</t>
+    <t>2026-02-23T22:07:35.125130+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T22:07:35.125130+00:00</t>
+    <t>2026-02-23T22:17:47.942231+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-23T22:17:47.942231+00:00</t>
+    <t>2026-02-24T13:01:42.828219+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-24T13:01:42.828219+00:00</t>
+    <t>2026-02-24T14:56:13.262113+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-24T14:56:13.262113+00:00</t>
+    <t>2026-02-24T20:05:50.488570+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-24T20:05:50.488570+00:00</t>
+    <t>2026-02-24T21:05:34.922806+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-24T21:05:34.922806+00:00</t>
+    <t>2026-02-24T21:13:15.325743+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-24T21:13:15.325743+00:00</t>
+    <t>2026-02-24T21:29:15.327842+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-24T21:29:15.327842+00:00</t>
+    <t>2026-02-25T20:36:19.911856+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-25T20:36:19.911856+00:00</t>
+    <t>2026-02-25T20:49:14.094943+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-25T20:49:14.094943+00:00</t>
+    <t>2026-02-25T21:16:30.621163+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-25T21:16:30.621163+00:00</t>
+    <t>2026-02-25T21:20:05.730278+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13162,7 +13162,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-25T21:20:05.730278+00:00</t>
+    <t>2026-02-27T14:45:32.872562+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
